--- a/flow.xlsx
+++ b/flow.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{22C8F7E0-3C3C-43CE-9E2B-B9B1FDF984BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB7D4E66-AFA0-42A1-A18F-5CB2EF236774}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="処理フロー" sheetId="1" r:id="rId1"/>
+    <sheet name="構成" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>アレクサ、オフィスファミマを開いて</t>
     <rPh sb="14" eb="15">
@@ -237,6 +238,77 @@
   </si>
   <si>
     <t>カートに入れることで疑似的な注文も可能です。</t>
+  </si>
+  <si>
+    <t>今回作成したスキルを有効にする</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品のマスターテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの中身を管理するテーブル</t>
+    <rPh sb="4" eb="6">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンボソーセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぷっちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -632,15 +704,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -656,7 +728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="3067050"/>
+          <a:off x="14554200" y="3581400"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -755,14 +827,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -777,8 +849,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2578100"/>
-          <a:ext cx="2057400" cy="336550"/>
+          <a:off x="3429000" y="2190750"/>
+          <a:ext cx="2057400" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -824,6 +896,30 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>円です</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>{Item</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は取り扱っていません</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -839,8 +935,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -859,7 +955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4457700" y="1714500"/>
-          <a:ext cx="0" cy="1035050"/>
+          <a:ext cx="0" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1046,13 +1142,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1069,7 +1165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="2171701"/>
+          <a:off x="8534400" y="2171701"/>
           <a:ext cx="3257550" cy="733424"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1145,13 +1241,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1166,8 +1262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="2565400"/>
-          <a:ext cx="2057400" cy="349250"/>
+          <a:off x="6172200" y="2222499"/>
+          <a:ext cx="2057400" cy="701675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1205,6 +1301,25 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>をカートに追加しました</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>{Item}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は取り扱っていません</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1520,62 +1635,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="コネクタ: カギ線 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678CA875-8718-4F88-BF51-85F0E7C40BD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="147" idx="2"/>
-          <a:endCxn id="8" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8386763" y="-1585912"/>
-          <a:ext cx="190500" cy="10144125"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -1641,7 +1700,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1660,7 +1719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7200900" y="1714500"/>
-          <a:ext cx="0" cy="1022350"/>
+          <a:ext cx="0" cy="507999"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2217,15 +2276,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2244,8 +2303,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9265445" y="-2597944"/>
-          <a:ext cx="838199" cy="12549188"/>
+          <a:off x="15009020" y="2974181"/>
+          <a:ext cx="1181099" cy="719138"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2337,7 +2396,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2357,7 +2416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10287000" y="1714500"/>
-          <a:ext cx="57150" cy="457200"/>
+          <a:ext cx="9525" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2381,6 +2440,948 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75BAE23-76FD-4467-80B7-233F07B6E72B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="3171825"/>
+          <a:ext cx="2057400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カートに追加して</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23F6D2B-44DF-42EA-BF9A-72386565DB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4448175" y="2895600"/>
+          <a:ext cx="9525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8446F9E5-248C-45A8-AB64-39FBFB1CE70D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="114" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5476875" y="2573337"/>
+          <a:ext cx="695325" cy="769938"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24588C1-C2AA-4A0C-A0EA-B180BC5803BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="147" idx="2"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13787437" y="3157537"/>
+          <a:ext cx="533400" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571312</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F341F9-3B4F-4F21-9159-A5D55570059E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="523875"/>
+          <a:ext cx="1504762" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB981F5-0BD8-4A10-9A13-7A9E2E0A5E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="2114550"/>
+          <a:ext cx="4791075" cy="2876559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4A64C2-1035-4E2F-BFD1-3A60DA39BEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915026" y="2066925"/>
+          <a:ext cx="1085849" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A868390-F926-43B7-AEDA-4666FFB3456E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="133350"/>
+          <a:ext cx="2752725" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 66651"/>
+            <a:gd name="adj2" fmla="val -17983"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アレクサ、オフィスファミマを開いて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ジャンボソーセージをカートに入れて</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE370856-FD14-4554-8023-E7C24D4B25B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="714375"/>
+          <a:ext cx="2752725" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58608"/>
+            <a:gd name="adj2" fmla="val 9993"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ジャンボソーセージをカートに追加しました</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0FE46E-CC93-4D89-B568-7F7217557A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="1066800"/>
+          <a:ext cx="2752725" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 66651"/>
+            <a:gd name="adj2" fmla="val -17983"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>精算して</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15046C5C-4D2A-4313-B835-C0B66343CFC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1514474"/>
+          <a:ext cx="2752725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62760"/>
+            <a:gd name="adj2" fmla="val -47150"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ジャンボソーセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で合計</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>130</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>円になります。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>お買い上げありがとうございました</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>418908</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BEB446-D285-4F53-B6B7-B1D22560A0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="1504950"/>
+          <a:ext cx="1533333" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266536</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F30181-A9F4-41D2-8B67-B616CAFD77E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="504825"/>
+          <a:ext cx="1314286" cy="1780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD7F32-9365-47C9-8EFB-3211CA14F165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19926342">
+          <a:off x="8620125" y="1581150"/>
+          <a:ext cx="752475" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11478655-D3C7-40A3-8E54-2974DFEC8770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5905501" y="2524125"/>
+          <a:ext cx="1085849" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2709,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2941,4 +3942,77 @@
     <webPublishItem id="2014" divId="新規 Microsoft Excel ワークシート_2014" sourceType="sheet" destinationFile="C:\data\工数\README.htm"/>
   </webPublishItems>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C75CA-3B49-40AA-AF86-594D8D1B84E4}">
+  <dimension ref="B2:S13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>